--- a/[추가3] decision tree원리 이해하기.xlsx
+++ b/[추가3] decision tree원리 이해하기.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\1. 강의\1.4 기타\AIVLE 과정\AIVLE 2기\2.강의안\AI\05 - 머신러닝\실습파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\김병수\22.08.22-머신러닝\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBC2648-8393-4796-8A10-372241AEE213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B270160-6E88-457C-B5FD-4659C8EDE8A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{772FE87B-02BB-43F9-9671-DD03893C9E31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{772FE87B-02BB-43F9-9671-DD03893C9E31}"/>
   </bookViews>
   <sheets>
     <sheet name="지니계수" sheetId="3" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>Pyes</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,6 +109,10 @@
   </si>
   <si>
     <t>몸통색깔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 증가량</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -312,8 +308,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="2030554"/>
-          <a:ext cx="5341320" cy="2420595"/>
+          <a:off x="0" y="2100739"/>
+          <a:ext cx="5225181" cy="2520858"/>
           <a:chOff x="7620" y="1471086"/>
           <a:chExt cx="5237769" cy="2473286"/>
         </a:xfrm>
@@ -1069,15 +1065,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>314701</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>197113</xdr:rowOff>
+      <xdr:colOff>80753</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>48538</xdr:rowOff>
+      <xdr:colOff>383272</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>75275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1100,8 +1096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1179471" y="1199745"/>
-          <a:ext cx="302519" cy="703661"/>
+          <a:off x="929648" y="3719692"/>
+          <a:ext cx="302519" cy="733741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,16 +1108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212904</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326535</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>107135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>496889</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>172742</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>610520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159373</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1144,8 +1140,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133069" y="470589"/>
-          <a:ext cx="283985" cy="704785"/>
+          <a:off x="3849114" y="2693924"/>
+          <a:ext cx="283985" cy="727344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1157,15 +1153,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>309046</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>70503</xdr:rowOff>
+      <xdr:colOff>476153</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>117293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>617841</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>143940</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116527</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1188,8 +1184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="488685" y="433957"/>
-          <a:ext cx="308795" cy="712615"/>
+          <a:off x="656627" y="2704082"/>
+          <a:ext cx="308795" cy="735174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1201,15 +1197,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57873</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>77596</xdr:rowOff>
+      <xdr:colOff>245032</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>117702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>346920</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>146111</xdr:rowOff>
+      <xdr:colOff>534079</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1232,8 +1228,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="922643" y="441050"/>
-          <a:ext cx="289047" cy="707693"/>
+          <a:off x="1093927" y="2704491"/>
+          <a:ext cx="289047" cy="730252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1244,16 +1240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514058</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44133</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32796</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>84239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>133038</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114432</xdr:rowOff>
+      <xdr:colOff>320197</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1276,8 +1272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1378828" y="407587"/>
-          <a:ext cx="304112" cy="709477"/>
+          <a:off x="1550112" y="2671028"/>
+          <a:ext cx="287401" cy="732036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1288,16 +1284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>482777</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>157950</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>288934</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>107055</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24723</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581633</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1320,8 +1316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662416" y="1160582"/>
-          <a:ext cx="309409" cy="719009"/>
+          <a:off x="3811513" y="3734001"/>
+          <a:ext cx="292699" cy="749089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1333,15 +1329,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>232118</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66993</xdr:rowOff>
+      <xdr:colOff>298961</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>525848</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>137292</xdr:rowOff>
+      <xdr:colOff>592691</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>164029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1364,8 +1360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1782020" y="430447"/>
-          <a:ext cx="293730" cy="709477"/>
+          <a:off x="1816277" y="2693888"/>
+          <a:ext cx="293730" cy="732036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,16 +1372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>52989</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>14534</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>487462</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>54639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>350760</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>77926</xdr:rowOff>
+      <xdr:colOff>116812</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1408,8 +1404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1602891" y="1230225"/>
-          <a:ext cx="297771" cy="702569"/>
+          <a:off x="1336357" y="3757692"/>
+          <a:ext cx="297771" cy="725129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,15 +1417,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>474720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>199411</xdr:rowOff>
+      <xdr:colOff>240772</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>103445</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50836</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>537918</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1452,8 +1448,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2024622" y="1202043"/>
-          <a:ext cx="313856" cy="703661"/>
+          <a:off x="1758088" y="3721990"/>
+          <a:ext cx="297146" cy="733741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1464,16 +1460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>46606</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>74613</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>668238</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>335654</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>144912</xdr:rowOff>
+      <xdr:colOff>288865</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1496,8 +1492,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2281639" y="438067"/>
-          <a:ext cx="289048" cy="709477"/>
+          <a:off x="2185554" y="2701508"/>
+          <a:ext cx="289048" cy="732036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,15 +1505,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>239826</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1592</xdr:rowOff>
+      <xdr:colOff>5878</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>541261</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>62411</xdr:rowOff>
+      <xdr:colOff>307313</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1540,8 +1536,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2474859" y="1217283"/>
-          <a:ext cx="301435" cy="699996"/>
+          <a:off x="2191615" y="3744750"/>
+          <a:ext cx="301435" cy="722556"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1552,16 +1548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>684082</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127674</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274472</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327284</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>197974</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601335</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>197973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1584,8 +1580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3604247" y="491128"/>
-          <a:ext cx="328333" cy="709478"/>
+          <a:off x="2460209" y="2727831"/>
+          <a:ext cx="326863" cy="732037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3278,55 +3274,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB52E2B-9BCA-4E0B-BD8A-E2A772B39D35}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="114" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="9" max="9" width="7.19921875" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="K5" s="2">
+        <f>7/12</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="K6" s="2">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="K7" s="2">
+        <f>1-SUM(K5^2,K6^2)</f>
+        <v>0.48611111111111105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K9" t="s">
         <v>14</v>
       </c>
@@ -3336,8 +3341,11 @@
       <c r="N9" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J10" s="4" t="s">
         <v>6</v>
       </c>
@@ -3351,35 +3359,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L11" s="2">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L12" s="2">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="K13" s="2">
+        <f>1-SUM(K11^2,K12^2)</f>
+        <v>0.27777777777777768</v>
+      </c>
+      <c r="L13" s="2">
+        <f>1-SUM(L11^2,L12^2)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M13" s="8">
+        <f>6/12*K13+6/12*L13</f>
+        <v>0.36111111111111105</v>
+      </c>
+      <c r="N13" s="9">
+        <f>K7-M13</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J15" s="4" t="s">
         <v>9</v>
       </c>
@@ -3393,35 +3425,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="2">
+        <f>5/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L16" s="2">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="10:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="10:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="2">
+        <f>4/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L17" s="2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="10:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="10:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.6">
+      <c r="K18" s="2">
+        <f>1-SUM(K16^2,K17^2)</f>
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="L18" s="2">
+        <f>1-SUM(L16^2,L17^2)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M18" s="2">
+        <f>9/12*K18+3/12*L18</f>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="N18" s="9">
+        <f>K7-M18</f>
+        <v>4.6296296296295947E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.6">
+    <row r="20" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
@@ -3435,30 +3491,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.6">
+    <row r="21" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="2">
+        <f>6/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="L21" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="10:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="10:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="2">
+        <f>4/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="L22" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="10:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="10:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="9"/>
+      <c r="K23" s="2">
+        <f>1-SUM(K21^2,K22^2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="L23" s="2">
+        <f>1-SUM(L21^2,L22^2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="2">
+        <f>10/12*K23+2/12*L23</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="N23" s="9">
+        <f>K7-M23</f>
+        <v>2.7777777777777124E-3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3476,31 +3556,31 @@
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="10" max="10" width="4.25" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="15" max="15" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="10" max="10" width="4.19921875" customWidth="1"/>
+    <col min="13" max="13" width="8.3984375" customWidth="1"/>
+    <col min="15" max="15" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3509,7 +3589,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3518,7 +3598,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K7" s="2" t="s">
         <v>2</v>
       </c>
@@ -3527,7 +3607,7 @@
         <v>0.97986875665115269</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="L9" t="s">
         <v>14</v>
       </c>
@@ -3538,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
@@ -3552,7 +3632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K11" s="4" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +3640,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K12" s="4" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +3648,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K13" s="4" t="s">
         <v>2</v>
       </c>
@@ -3577,10 +3657,10 @@
       <c r="N13" s="2"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K15" s="4" t="s">
         <v>9</v>
       </c>
@@ -3594,7 +3674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K16" s="4" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3682,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K17" s="4" t="s">
         <v>1</v>
       </c>
@@ -3610,7 +3690,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="18" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K18" s="4" t="s">
         <v>2</v>
       </c>
@@ -3619,10 +3699,10 @@
       <c r="N18" s="2"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K20" s="4" t="s">
         <v>6</v>
       </c>
@@ -3636,7 +3716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K21" s="4" t="s">
         <v>0</v>
       </c>
@@ -3644,7 +3724,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K22" s="4" t="s">
         <v>1</v>
       </c>
@@ -3652,7 +3732,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="23" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K23" s="4" t="s">
         <v>2</v>
       </c>
